--- a/docs/ST3/ST3_05.08.24_output.xlsx
+++ b/docs/ST3/ST3_05.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731673728.1263196</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731673728.5623019</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673728.1263196.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673728.5623019.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>278.33</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>277.86</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.4699999999999704</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731673729.372532</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731673729.814865</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673729.372532.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673729.814865.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.61</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.18</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.4300000000000068</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731673737.0091445</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731673737.2025673</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673737.0091445.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673737.2025673.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>276.89</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>276.54</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.3499999999999659</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731673740.6711211</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731673741.923069</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731673740.6711211.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731673741.923069.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>128.07</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>127.51</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.5599999999999881</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731673744.7900066</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731673747.7088673</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731673744.7900066.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731673747.7088673.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>128.16</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>128.04</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.1200000000000045</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731673750.082582</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731673750.4440756</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731673750.082582.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731673750.4440756.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>127.64</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>127.48</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731673752.6326704</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731673753.457016</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731673752.6326704.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731673753.457016.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6410</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6416.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-6.5</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731673776.344035</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731673777.3617353</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731673776.344035.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731673777.3617353.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>224</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>222.67</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>1.330000000000013</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731673777.951505</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731673779.024012</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731673777.951505.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731673779.024012.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>223.1</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>224.78</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-1.680000000000007</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.75</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731673786.241204</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731673786.8456562</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731673786.241204.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731673786.8456562.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>1008.2</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>1007</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-1.200000000000045</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731673789.101294</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731673789.189466</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731673789.101294.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731673789.189466.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>1003</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>1000.2</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731673789.6348543</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731673791.011584</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731673789.6348543.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731673791.011584.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>1001.6</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>1008.4</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-6.799999999999955</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.6799999999999999</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731673791.5084553</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731673792.1771107</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731673791.5084553.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731673792.1771107.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>1008.8</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>1008.2</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.5999999999999091</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731673807.1228118</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731673807.681642</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731673807.1228118.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731673807.681642.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>124.14</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>124.02</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731673821.050727</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731673821.4555695</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731673821.050727.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731673821.4555695.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>160.7</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>160.74</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.04000000000002046</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731673829.868697</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731673829.9966333</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731673829.868697.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731673829.9966333.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>48.715</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>48.65</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.06500000000000483</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731673830.2801473</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731673835.0836134</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731673830.2801473.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731673835.0836134.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>48.73</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>49.1</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.3700000000000045</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.76</v>
       </c>
     </row>
@@ -1423,51 +1541,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731673839.7900848</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731673839.8817215</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731673839.7900848.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731673839.8817215.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1382.6</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1380.2</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>2.399999999999864</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1475,51 +1599,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731673840.0885036</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731673840.1802862</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731673840.0885036.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731673840.1802862.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1381.8</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>1379.4</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>2.399999999999864</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1527,51 +1657,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731673844.4495046</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731673845.1080215</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731673844.4495046.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731673845.1080215.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1379.4</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1380.6</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>1.199999999999818</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1579,95 +1715,107 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731673848.6171749</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731673848.6171749.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731673848.6171749.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1378.2</v>
       </c>
-      <c r="J23" t="n">
-        <v>1378.2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1375.4</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2.799999999999955</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731673855.9576662</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731673856.1659558</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731673855.9576662.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731673856.1659558.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>59.55</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>59.71</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.1600000000000037</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1675,51 +1823,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731673856.454684</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731673857.2684023</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731673856.454684.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731673857.2684023.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>59.61</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>59.62</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.00999999999999801</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1727,95 +1881,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731673858.1246371</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731673858.1246371.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731673858.1246371.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>59.64</v>
       </c>
-      <c r="J26" t="n">
-        <v>59.64</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>59.38</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.259999999999998</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731673863.1382785</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731673863.69359</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731673863.1382785.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731673863.69359.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>95.97</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.2399999999999949</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1823,51 +1989,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731673870.4161735</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731673872.0108938</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/SELG1731673870.4161735.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/SELG1731673872.0108938.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>55.79</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>55.93</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.1400000000000006</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -1875,93 +2047,109 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731673880.1282692</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731673880.1282692.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731673880.1282692.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>2888</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2888</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731673881.3483922</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731673882.3294039</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731673881.3483922.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731673882.3294039.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>139.86</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>139.98</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.1199999999999761</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1969,51 +2157,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731673883.6676462</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731673888.0554998</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731673883.6676462.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731673888.0554998.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>139.16</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>142.76</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-3.599999999999994</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-2.59</v>
       </c>
     </row>
@@ -2021,51 +2215,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731673893.18512</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731673894.121629</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731673893.18512.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731673894.121629.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>19.949</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>19.826</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.1230000000000011</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -2073,51 +2273,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731673894.9356287</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731673895.7554572</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731673894.9356287.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731673895.7554572.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>19.858</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>19.846</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.01200000000000045</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2125,51 +2331,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731673896.753124</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731673897.4333074</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731673896.753124.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731673897.4333074.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>19.919</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>19.894</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.02500000000000213</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -2177,51 +2389,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731673898.9459937</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731673899.7835982</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731673898.9459937.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731673899.7835982.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>19.944</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>19.936</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.007999999999999119</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2229,95 +2447,107 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731673901.401023</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731673901.401023.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731673901.401023.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>19.814</v>
       </c>
-      <c r="J36" t="n">
-        <v>19.814</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>19.761</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.05300000000000082</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731673907.260106</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731673908.3261936</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731673907.260106.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731673908.3261936.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>656.85</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>661.35</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-4.5</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.6899999999999999</v>
       </c>
     </row>
@@ -2325,51 +2555,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731673909.403964</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731673909.80938</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731673909.403964.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731673909.80938.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>661.55</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>660.05</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-1.5</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -2377,95 +2613,107 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731673913.742358</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731673913.742358.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731673913.742358.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>658</v>
       </c>
-      <c r="J39" t="n">
-        <v>658</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>657</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731673924.3853967</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731673924.4332652</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/FEES1731673924.3853967.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/FEES1731673924.4332652.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>0.0954</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>0.09506000000000001</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.0003399999999999931</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -2473,51 +2721,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731673924.6008706</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731673924.7667172</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/FEES1731673924.6008706.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/FEES1731673924.7667172.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>0.09530000000000001</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>0.09474</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.0005600000000000049</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -2525,51 +2779,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731673927.1599958</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731673927.439437</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/FEES1731673927.1599958.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/FEES1731673927.439437.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>0.09508000000000001</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>0.09534000000000001</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.0002599999999999963</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2577,51 +2837,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731673928.7282252</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731673931.927094</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/FEES1731673928.7282252.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/FEES1731673931.927094.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>0.09552000000000001</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>0.095</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.0005200000000000066</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.54</v>
       </c>
     </row>
@@ -2629,51 +2895,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731673935.1741507</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731673936.1248736</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731673935.1741507.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731673936.1248736.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>95.44</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>94.94</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.5</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -2681,95 +2953,107 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731673937.0168188</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1731673937.0168188.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1731673937.0168188.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>94.83</v>
       </c>
-      <c r="J45" t="n">
-        <v>94.83</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>94.73</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731673944.1578412</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731673949.2963946</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673944.1578412.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673949.2963946.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>2902.55</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>2891</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-11.55000000000018</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -2777,51 +3061,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731673952.9231403</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731673953.6827018</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731673952.9231403.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731673953.6827018.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>11.905</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>11.941</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.03600000000000136</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2883,19 +3173,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1020000000000003</v>
+        <v>0.1550000000000011</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02040000000000006</v>
+        <v>0.03100000000000023</v>
       </c>
       <c r="E2" t="n">
-        <v>0.51</v>
+        <v>0.78</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -2905,19 +3195,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.999999999999545</v>
+        <v>8.7999999999995</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.499999999999886</v>
+        <v>2.199999999999875</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4299999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="F3" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -2971,19 +3261,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1700000000000017</v>
+        <v>-0.08999999999999631</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05666666666666723</v>
+        <v>-0.02999999999999877</v>
       </c>
       <c r="E6" t="n">
-        <v>0.29</v>
+        <v>-0.15</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="7">
@@ -3015,19 +3305,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>-2</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9199999999999999</v>
+        <v>-0.7699999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.31</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="9">
@@ -3081,19 +3371,23 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-11.55000000000018</v>
+        <v>2876.45</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.775000000000091</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.2</v>
+        <v>1438.225</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -3147,19 +3441,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5</v>
+        <v>0.5999999999999943</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.25</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="E14" t="n">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="F14" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="15">
